--- a/SBIePay/src/test/resources/Test Data/New Microsoft Excel Worksheet.xlsx
+++ b/SBIePay/src/test/resources/Test Data/New Microsoft Excel Worksheet.xlsx
@@ -28,10 +28,10 @@
     <t>tc2</t>
   </si>
   <si>
-    <t>test case1</t>
-  </si>
-  <si>
-    <t>test case2</t>
+    <t>{merchantId=1000003, aggregatorId=SBIEPAY, queryRequest=zDjRtS9nHgK730VphtNyWneNHP82bFbBbVb78YCI5y1rSjfMadRq7ko28HyM3m52}</t>
+  </si>
+  <si>
+    <t>{"merchantId":"1000003","aggregatorId":"SBIEPAY","queryRequest":"zDjRtS9nHgK730VphtNyWneNHP82bFbBbVb78YCI5y1rSjfMadRq7ko28HyM3m52"}</t>
   </si>
 </sst>
 </file>
@@ -376,10 +376,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="138" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -394,7 +397,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +405,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
